--- a/release_notes/PARAM/PARAM_17.1_vs_16.26.xlsx
+++ b/release_notes/PARAM/PARAM_17.1_vs_16.26.xlsx
@@ -58842,12 +58842,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RF-00000028-ORG</t>
+          <t>RF-00000111-CHE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Meta-Cresol</t>
+          <t>Sulfur (S)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -58858,12 +58858,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RF-00000007-NTR</t>
+          <t>RF-00000164-CHE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ethanol</t>
+          <t>Iron (Fe)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -58874,12 +58874,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RF-00000038-NTR</t>
+          <t>RF-00000028-ORG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>caffeine</t>
+          <t>Meta-Cresol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -58890,28 +58890,30 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RF-00000082-NTR</t>
+          <t>RF-0401-001-PPP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ergocalciferol</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Sulphur</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RF-00000199-ADD</t>
+          <t>RF-00000007-NTR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Natamycin</t>
+          <t>Ethanol</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -58922,12 +58924,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RF-00002190-PAR</t>
+          <t>RF-00000038-NTR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3-Methylbut-3-en-1-ol</t>
+          <t>caffeine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -58938,12 +58940,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RF-00006311-PAR</t>
+          <t>RF-00000082-NTR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Methanoic acid</t>
+          <t>ergocalciferol</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -58954,12 +58956,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RF-00008107-PAR</t>
+          <t>RF-00000032-ADD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2-Methylpropionic acid</t>
+          <t>Aluminium potassium sulphate</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -58970,12 +58972,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RF-00008133-PAR</t>
+          <t>RF-00000084-ADD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Valeric acid</t>
+          <t>Calcium propionate</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -58986,12 +58988,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RF-00009932-PAR</t>
+          <t>RF-00000180-ADD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5-Chloro-2-methyl-2H-isothiazol-3-one</t>
+          <t>Magnesium hydroxide</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -59002,12 +59004,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RF-00010053-PAR</t>
+          <t>RF-00000199-ADD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chlorophyllin a</t>
+          <t>Natamycin</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -59018,12 +59020,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RF-00011844-PAR</t>
+          <t>RF-00001414-PAR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Imidazolidin-2-one</t>
+          <t>Grape seed extract</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -59034,12 +59036,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RF-00012288-PAR</t>
+          <t>RF-00001664-PAR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Betabaculovirus</t>
+          <t>Epoxidised soybean oil</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -59050,12 +59052,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RF-00013623-PAR</t>
+          <t>RF-00001716-PAR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sodium carbonate</t>
+          <t>Dodecyldimethylamine oxide</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -59066,12 +59068,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RF-00013671-PAR</t>
+          <t>RF-00001960-PAR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glyoxal</t>
+          <t>2-Methylbut-3-en-2-ol</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -59082,12 +59084,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RF-00013778-PAR</t>
+          <t>RF-00002190-PAR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Metarhizium brunneum Cb15-III</t>
+          <t>3-Methylbut-3-en-1-ol</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -59098,12 +59100,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RF-00014481-PAR</t>
+          <t>RF-00003022-PAR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Verticillium nonalfalfae Vert56</t>
+          <t>3,5,6-TCP</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -59114,12 +59116,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RF-00014492-PAR</t>
+          <t>RF-00002888-PAR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Papiliotrema terrestris PT22AV</t>
+          <t>Crystal Violet</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -59130,12 +59132,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RF-00014617-PAR</t>
+          <t>RF-00005771-PAR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Artemisia vulgaris, ext.</t>
+          <t>Calcium phosphide</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -59146,12 +59148,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RF-00014619-PAR</t>
+          <t>RF-00006311-PAR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Paraffin Oil</t>
+          <t>Methanoic acid</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -59162,12 +59164,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RF-00014627-PAR</t>
+          <t>RF-00006897-PAR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Savory, Satureja montana, ext.</t>
+          <t>L-Carvone</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -59178,12 +59180,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RF-00014652-PAR</t>
+          <t>RF-00007493-PAR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gelatins</t>
+          <t>Triclosan</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -59194,12 +59196,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RF-00015328-PAR</t>
+          <t>RF-00007954-PAR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sodium dodecyl sulphate (Sodium lauryl sulfate)</t>
+          <t>3,7,11-Trimethyldodeca-2,6,10-trien-1-ol</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -59210,12 +59212,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RF-00015352-PAR</t>
+          <t>RF-00008032-PAR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Solvent-refined (severe) light and heavy paraffinic petroleum oil</t>
+          <t>Peroxyacetic acid</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -59226,12 +59228,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RF-00016201-PAR</t>
+          <t>RF-00008039-PAR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Metarhizium brunneum BNL102</t>
+          <t>Dimethyl sulfide</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -59242,12 +59244,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RF-00016204-PAR</t>
+          <t>RF-00008040-PAR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Trichoderma afroharzianum Th2RI99</t>
+          <t>Dimethyl disulfide</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -59258,12 +59260,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RF-00000164-CHE</t>
+          <t>RF-00008107-PAR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Iron (Fe)</t>
+          <t>2-Methylpropionic acid</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -59274,30 +59276,28 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RF-0401-001-PPP</t>
+          <t>RF-00008121-PAR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sulphur</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
+          <t>4-Amino-butyric acid</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RF-00000032-ADD</t>
+          <t>RF-00008133-PAR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aluminium potassium sulphate</t>
+          <t>Valeric acid</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -59308,12 +59308,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RF-00001414-PAR</t>
+          <t>RF-00008138-PAR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Grape seed extract</t>
+          <t>3-Methylbutyric acid</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -59324,12 +59324,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RF-00001664-PAR</t>
+          <t>RF-00008321-PAR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Epoxidised soybean oil</t>
+          <t>1,2-Benzisothiazolin-3-one</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -59340,12 +59340,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RF-00003022-PAR</t>
+          <t>RF-00008442-PAR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3,5,6-TCP</t>
+          <t>Methylanthranilate</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -59356,12 +59356,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RF-00005771-PAR</t>
+          <t>RF-00008591-PAR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Calcium phosphide</t>
+          <t>Asulam Sodium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -59372,12 +59372,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RF-00007493-PAR</t>
+          <t>RF-00009022-PAR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Triclosan</t>
+          <t>2-Propen-1-ol</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -59388,12 +59388,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RF-00007954-PAR</t>
+          <t>RF-00009284-PAR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3,7,11-Trimethyldodeca-2,6,10-trien-1-ol</t>
+          <t>Hexane</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -59404,12 +59404,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RF-00008032-PAR</t>
+          <t>RF-00009505-PAR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Peroxyacetic acid</t>
+          <t>Tall oil pitch</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -59420,12 +59420,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RF-00008040-PAR</t>
+          <t>RF-00009932-PAR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dimethyl disulfide</t>
+          <t>5-Chloro-2-methyl-2H-isothiazol-3-one</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -59436,12 +59436,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RF-00008591-PAR</t>
+          <t>RF-00009984-PAR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Asulam Sodium</t>
+          <t>D-tagatose</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -59452,12 +59452,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RF-00009022-PAR</t>
+          <t>RF-00009989-PAR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2-Propen-1-ol</t>
+          <t>2-Methyl-4-isothiazolin-3-one</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -59468,12 +59468,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RF-00009284-PAR</t>
+          <t>RF-00010053-PAR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hexane</t>
+          <t>Chlorophyllin a</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -59484,12 +59484,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RF-00009505-PAR</t>
+          <t>RF-00010089-PAR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tall oil pitch</t>
+          <t>Quinine hydrochloride</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -59500,12 +59500,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RF-00009989-PAR</t>
+          <t>RF-00011800-PAR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2-Methyl-4-isothiazolin-3-one</t>
+          <t>Aspergillus flavus MUCL 54911</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -59516,12 +59516,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RF-00010089-PAR</t>
+          <t>RF-00011844-PAR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Quinine hydrochloride</t>
+          <t>Imidazolidin-2-one</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -59532,12 +59532,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RF-00011800-PAR</t>
+          <t>RF-00012288-PAR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Aspergillus flavus MUCL 54911</t>
+          <t>Betabaculovirus</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -59548,12 +59548,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RF-00013161-PAR</t>
+          <t>RF-00012373-PAR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Betabaculovirus phoperculellae</t>
+          <t>Papain</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -59564,12 +59564,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RF-00013469-PAR</t>
+          <t>RF-00013161-PAR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pythium oligandrum B301</t>
+          <t>Betabaculovirus phoperculellae</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -59580,12 +59580,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RF-00013673-PAR</t>
+          <t>RF-00013243-PAR</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Soaps, potassium</t>
+          <t>Essential oil from the flowers of Cananga odorata (Lam.) Hook.f. and Thomson (ylang ylang oil)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -59596,12 +59596,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RF-00013767-PAR</t>
+          <t>RF-00013469-PAR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Beauveria bassiana R444</t>
+          <t>Pythium oligandrum B301</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -59612,12 +59612,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RF-00014489-PAR</t>
+          <t>RF-00013623-PAR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Streptomyces lydicus WYEC 108</t>
+          <t>Sodium carbonate</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -59628,12 +59628,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RF-00014600-PAR</t>
+          <t>RF-00013671-PAR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Beauveria bassiana 203</t>
+          <t>Glyoxal</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -59644,12 +59644,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RF-00014603-PAR</t>
+          <t>RF-00013673-PAR</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Beauveria bassiana strain 147</t>
+          <t>Soaps, potassium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -59660,12 +59660,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RF-00014604-PAR</t>
+          <t>RF-00013767-PAR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bacillus thuringiensis subsp. Tenebrionis strain NB-176</t>
+          <t>Beauveria bassiana R444</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -59676,12 +59676,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RF-00014605-PAR</t>
+          <t>RF-00013778-PAR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bacillus thuringiensis subspecies israelensis strain AM65-52</t>
+          <t>Metarhizium brunneum Cb15-III</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -59692,12 +59692,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RF-00014630-PAR</t>
+          <t>RF-00013779-PAR</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Residues of petroleum oil</t>
+          <t>Beauveria bassiana BOV1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -59708,12 +59708,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RF-00015730-PAR</t>
+          <t>RF-00014499-PAR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Choline hydrogen phosphonate</t>
+          <t>Silver iodide</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -59724,12 +59724,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RF-00015743-PAR</t>
+          <t>RF-00014473-PAR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Metarhizium pingshaense CF69</t>
+          <t>Trichoderma atroviride 77B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -59740,12 +59740,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RF-00015814-PAR</t>
+          <t>RF-00014481-PAR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Metarhizium pingshaense CF78</t>
+          <t>Verticillium nonalfalfae Vert56</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -59756,12 +59756,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RF-00015858-PAR</t>
+          <t>RF-00014492-PAR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Lysate of Willaertia magna C2c Mak</t>
+          <t>Papiliotrema terrestris PT22AV</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -59772,12 +59772,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RF-00016132-PAR</t>
+          <t>RF-00014494-PAR</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Bacillus amyloliquefaciens AT-332</t>
+          <t>Bacillus thuringiensis RTI545</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -59788,12 +59788,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RF-00016148-PAR</t>
+          <t>RF-00014489-PAR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cryptophlebia peltastica Nucleopolyhedrovirus, strain South Africa</t>
+          <t>Streptomyces lydicus WYEC 108</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -59804,12 +59804,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RF-00016206-PAR</t>
+          <t>RF-00014572-PAR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Bacillus nakamurai F727</t>
+          <t>Pseudozyma flocculosa</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -59820,12 +59820,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RF-00016223-PAR</t>
+          <t>RF-00014599-PAR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dimpropyridaz</t>
+          <t>Beauveria bassiana strain NPP111B005</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -59836,12 +59836,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RF-00016226-PAR</t>
+          <t>RF-00014600-PAR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2-[8-chloro-4-(4-methoxyphenyl)-3-oxo-quinoxaline-2-carbonyl]cyclohexane-1,3-dione</t>
+          <t>Beauveria bassiana 203</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -59852,12 +59852,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RF-00016227-PAR</t>
+          <t>RF-00014602-PAR</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>(1S)-2,2-bis(4-fluorophenyl)-1-methylethyl N-{[3-(acetyloxy)-4-methoxy-2-pyridyl]carbonyl}-L-alaninate</t>
+          <t>Beauveria bassiana strain IMI389521</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -59868,12 +59868,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RF-00016351-PAR</t>
+          <t>RF-00014603-PAR</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>(Z)-9-Tricosene</t>
+          <t>Beauveria bassiana strain 147</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -59884,12 +59884,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RF-00000111-CHE</t>
+          <t>RF-00014604-PAR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sulfur (S)</t>
+          <t>Bacillus thuringiensis subsp. Tenebrionis strain NB-176</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -59900,12 +59900,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RF-00000084-ADD</t>
+          <t>RF-00014605-PAR</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Calcium propionate</t>
+          <t>Bacillus thuringiensis subspecies israelensis strain AM65-52</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -59916,12 +59916,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RF-00000180-ADD</t>
+          <t>RF-00014617-PAR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Magnesium hydroxide</t>
+          <t>Artemisia vulgaris, ext.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -59932,12 +59932,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RF-00001716-PAR</t>
+          <t>RF-00014619-PAR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dodecyldimethylamine oxide</t>
+          <t>Paraffin Oil</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -59948,12 +59948,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RF-00001960-PAR</t>
+          <t>RF-00014623-PAR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2-Methylbut-3-en-2-ol</t>
+          <t>Quassia amara, ext.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -59964,12 +59964,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RF-00002888-PAR</t>
+          <t>RF-00014627-PAR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Crystal Violet</t>
+          <t>Savory, Satureja montana, ext.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -59980,12 +59980,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RF-00006897-PAR</t>
+          <t>RF-00014630-PAR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>L-Carvone</t>
+          <t>Residues of petroleum oil</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -59996,12 +59996,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RF-00008039-PAR</t>
+          <t>RF-00014652-PAR</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Dimethyl sulfide</t>
+          <t>Gelatins</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -60012,12 +60012,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RF-00008121-PAR</t>
+          <t>RF-00014766-PAR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4-Amino-butyric acid</t>
+          <t>Alpha-Lactalbumin</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -60028,12 +60028,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RF-00008138-PAR</t>
+          <t>RF-00015325-PAR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3-Methylbutyric acid</t>
+          <t>Cinnamomum cassia oil</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -60044,12 +60044,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RF-00008321-PAR</t>
+          <t>RF-00015328-PAR</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1,2-Benzisothiazolin-3-one</t>
+          <t>Sodium dodecyl sulphate (Sodium lauryl sulfate)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -60060,12 +60060,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RF-00008442-PAR</t>
+          <t>RF-00015352-PAR</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Methylanthranilate</t>
+          <t>Solvent-refined (severe) light and heavy paraffinic petroleum oil</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -60076,12 +60076,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RF-00009984-PAR</t>
+          <t>RF-00015700-PAR</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>D-tagatose</t>
+          <t>Phosphonic acid and its salts expressed as phosphonic acid</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -60092,12 +60092,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RF-00012373-PAR</t>
+          <t>RF-00015730-PAR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Papain</t>
+          <t>Choline hydrogen phosphonate</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -60108,12 +60108,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RF-00013243-PAR</t>
+          <t>RF-00015743-PAR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Essential oil from the flowers of Cananga odorata (Lam.) Hook.f. and Thomson (ylang ylang oil)</t>
+          <t>Metarhizium pingshaense CF69</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -60124,12 +60124,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RF-00013779-PAR</t>
+          <t>RF-00015814-PAR</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Beauveria bassiana BOV1</t>
+          <t>Metarhizium pingshaense CF78</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -60140,12 +60140,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RF-00014499-PAR</t>
+          <t>RF-00015858-PAR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Silver iodide</t>
+          <t>Lysate of Willaertia magna C2c Mak</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -60156,12 +60156,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RF-00014473-PAR</t>
+          <t>RF-00015926-PAR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Trichoderma atroviride 77B</t>
+          <t>Corn Oil</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -60172,12 +60172,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RF-00014494-PAR</t>
+          <t>RF-00016132-PAR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Bacillus thuringiensis RTI545</t>
+          <t>Bacillus amyloliquefaciens AT-332</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -60188,12 +60188,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RF-00014572-PAR</t>
+          <t>RF-00016148-PAR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Pseudozyma flocculosa</t>
+          <t>Cryptophlebia peltastica Nucleopolyhedrovirus, strain South Africa</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -60204,12 +60204,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>RF-00014599-PAR</t>
+          <t>RF-00016201-PAR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Beauveria bassiana strain NPP111B005</t>
+          <t>Metarhizium brunneum BNL102</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -60220,12 +60220,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>RF-00014602-PAR</t>
+          <t>RF-00016204-PAR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Beauveria bassiana strain IMI389521</t>
+          <t>Trichoderma afroharzianum Th2RI99</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -60236,12 +60236,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>RF-00014623-PAR</t>
+          <t>RF-00016206-PAR</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Quassia amara, ext.</t>
+          <t>Bacillus nakamurai F727</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -60252,12 +60252,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RF-00014766-PAR</t>
+          <t>RF-00016211-PAR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Alpha-Lactalbumin</t>
+          <t>Trichoderma harzianum T78</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -60268,12 +60268,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RF-00015325-PAR</t>
+          <t>RF-00016216-PAR</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cinnamomum cassia oil</t>
+          <t>Metarhizium pingshaense CF62</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -60284,12 +60284,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RF-00015700-PAR</t>
+          <t>RF-00016223-PAR</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Phosphonic acid and its salts expressed as phosphonic acid</t>
+          <t>Dimpropyridaz</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -60300,12 +60300,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RF-00015926-PAR</t>
+          <t>RF-00016226-PAR</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Corn Oil</t>
+          <t>2-[8-chloro-4-(4-methoxyphenyl)-3-oxo-quinoxaline-2-carbonyl]cyclohexane-1,3-dione</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -60316,12 +60316,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RF-00016211-PAR</t>
+          <t>RF-00016227-PAR</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Trichoderma harzianum T78</t>
+          <t>(1S)-2,2-bis(4-fluorophenyl)-1-methylethyl N-{[3-(acetyloxy)-4-methoxy-2-pyridyl]carbonyl}-L-alaninate</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -60332,12 +60332,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RF-00016216-PAR</t>
+          <t>RF-00016347-PAR</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Metarhizium pingshaense CF62</t>
+          <t>Distillates (petroleum), solvent-dewaxed heavy paraffinic</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -60348,12 +60348,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RF-00016347-PAR</t>
+          <t>RF-00016351-PAR</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Distillates (petroleum), solvent-dewaxed heavy paraffinic</t>
+          <t>(Z)-9-Tricosene</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -60411,30 +60411,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RF-00000371-ORG</t>
+          <t>RF-0151-004-PPP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Volatile PFAS</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
+          <t>Mancozeb</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RF-0151-004-PPP</t>
+          <t>RF-00000082-NTR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mancozeb</t>
+          <t>ergocalciferol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -60445,12 +60443,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RF-00000082-NTR</t>
+          <t>RF-00003665-PAR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ergocalciferol</t>
+          <t>aconitine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -60461,15 +60459,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RF-00001414-PAR</t>
+          <t>RF-00007490-PAR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grape seed extract</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Icaridin</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
@@ -60477,12 +60477,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RF-00001716-PAR</t>
+          <t>RF-00009932-PAR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dodecyldimethylamine oxide</t>
+          <t>5-Chloro-2-methyl-2H-isothiazol-3-one</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -60493,12 +60493,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RF-00003022-PAR</t>
+          <t>RF-00010053-PAR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3,5,6-TCP</t>
+          <t>Chlorophyllin a</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -60509,12 +60509,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RF-00003411-PAR</t>
+          <t>RF-00011529-PAR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gramine</t>
+          <t>Mesaconitine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -60525,12 +60525,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RF-00003665-PAR</t>
+          <t>RF-00011771-PAR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>aconitine</t>
+          <t>Naringenin</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -60541,12 +60541,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RF-00004133-PAR</t>
+          <t>RF-00011844-PAR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ajacine</t>
+          <t>Imidazolidin-2-one</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -60557,12 +60557,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RF-00005771-PAR</t>
+          <t>RF-00012288-PAR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Calcium phosphide</t>
+          <t>Betabaculovirus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -60573,17 +60573,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RF-00007490-PAR</t>
+          <t>RF-00013059-PAR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Icaridin</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
+          <t>2-Methyl-1-(2-(5-(p-tolyl)-1H-imidazol-2-yl)piperidin-1-yl)butan-1-one</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
         <v>1</v>
       </c>
@@ -60591,17 +60589,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RF-00007493-PAR</t>
+          <t>RF-00013671-PAR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Triclosan</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
+          <t>Glyoxal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>1</v>
       </c>
@@ -60609,12 +60605,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RF-00008032-PAR</t>
+          <t>RF-00013778-PAR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Peroxyacetic acid</t>
+          <t>Metarhizium brunneum Cb15-III</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -60625,12 +60621,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RF-00008321-PAR</t>
+          <t>RF-00014481-PAR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1,2-Benzisothiazolin-3-one</t>
+          <t>Verticillium nonalfalfae Vert56</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -60641,12 +60637,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RF-00008591-PAR</t>
+          <t>RF-00014492-PAR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Asulam Sodium</t>
+          <t>Papiliotrema terrestris PT22AV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -60657,12 +60653,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RF-00009022-PAR</t>
+          <t>RF-00014617-PAR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2-Propen-1-ol</t>
+          <t>Artemisia vulgaris, ext.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -60673,12 +60669,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RF-00009505-PAR</t>
+          <t>RF-00014619-PAR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tall oil pitch</t>
+          <t>Paraffin Oil</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -60689,12 +60685,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RF-00009932-PAR</t>
+          <t>RF-00014627-PAR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5-Chloro-2-methyl-2H-isothiazol-3-one</t>
+          <t>Savory, Satureja montana, ext.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -60705,12 +60701,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RF-00009984-PAR</t>
+          <t>RF-00014652-PAR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>D-tagatose</t>
+          <t>Gelatins</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -60721,12 +60717,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RF-00009989-PAR</t>
+          <t>RF-00015328-PAR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2-Methyl-4-isothiazolin-3-one</t>
+          <t>Sodium dodecyl sulphate (Sodium lauryl sulfate)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -60737,12 +60733,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RF-00010053-PAR</t>
+          <t>RF-00015352-PAR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chlorophyllin a</t>
+          <t>Solvent-refined (severe) light and heavy paraffinic petroleum oil</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -60753,12 +60749,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RF-00011528-PAR</t>
+          <t>RF-00016201-PAR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hypaconitine</t>
+          <t>Metarhizium brunneum BNL102</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -60769,12 +60765,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RF-00011529-PAR</t>
+          <t>RF-00016204-PAR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mesaconitine</t>
+          <t>Trichoderma afroharzianum Th2RI99</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -60785,44 +60781,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RF-00011771-PAR</t>
+          <t>RF-00016407-PAR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Naringenin</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Alkylated phosphates</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RF-00011800-PAR</t>
+          <t>RF-00000371-ORG</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aspergillus flavus MUCL 54911</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>Volatile PFAS</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RF-00011844-PAR</t>
+          <t>RF-00001414-PAR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Imidazolidin-2-one</t>
+          <t>Grape seed extract</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -60833,12 +60833,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RF-00012288-PAR</t>
+          <t>RF-00003022-PAR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Betabaculovirus</t>
+          <t>3,5,6-TCP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -60849,12 +60849,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RF-00012373-PAR</t>
+          <t>RF-00005771-PAR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Papain</t>
+          <t>Calcium phosphide</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -60865,12 +60865,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RF-00013059-PAR</t>
+          <t>RF-00008032-PAR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2-Methyl-1-(2-(5-(p-tolyl)-1H-imidazol-2-yl)piperidin-1-yl)butan-1-one</t>
+          <t>Peroxyacetic acid</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -60881,12 +60881,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RF-00013161-PAR</t>
+          <t>RF-00008591-PAR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Betabaculovirus phoperculellae</t>
+          <t>Asulam Sodium</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -60897,12 +60897,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RF-00013243-PAR</t>
+          <t>RF-00009022-PAR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Essential oil from the flowers of Cananga odorata (Lam.) Hook.f. and Thomson (ylang ylang oil)</t>
+          <t>2-Propen-1-ol</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -60913,12 +60913,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RF-00013370-PAR</t>
+          <t>RF-00009505-PAR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3-Methyl-2(5H)-furanone</t>
+          <t>Tall oil pitch</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -60929,12 +60929,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RF-00013374-PAR</t>
+          <t>RF-00009989-PAR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4H-Pyran-4-one</t>
+          <t>2-Methyl-4-isothiazolin-3-one</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -60945,12 +60945,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RF-00013378-PAR</t>
+          <t>RF-00011528-PAR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4-Methyl-2(5H)-furanone</t>
+          <t>Hypaconitine</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -60961,12 +60961,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RF-00013469-PAR</t>
+          <t>RF-00011800-PAR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pythium oligandrum B301</t>
+          <t>Aspergillus flavus MUCL 54911</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -60977,12 +60977,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RF-00013671-PAR</t>
+          <t>RF-00013161-PAR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Glyoxal</t>
+          <t>Betabaculovirus phoperculellae</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -60993,12 +60993,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RF-00013673-PAR</t>
+          <t>RF-00013370-PAR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Soaps, potassium</t>
+          <t>3-Methyl-2(5H)-furanone</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -61009,12 +61009,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RF-00013767-PAR</t>
+          <t>RF-00013469-PAR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Beauveria bassiana R444</t>
+          <t>Pythium oligandrum B301</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -61025,12 +61025,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RF-00013778-PAR</t>
+          <t>RF-00013673-PAR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Metarhizium brunneum Cb15-III</t>
+          <t>Soaps, potassium</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -61041,12 +61041,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RF-00013779-PAR</t>
+          <t>RF-00013767-PAR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Beauveria bassiana BOV1</t>
+          <t>Beauveria bassiana R444</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -61057,12 +61057,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RF-00014499-PAR</t>
+          <t>RF-00014489-PAR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Silver iodide</t>
+          <t>Streptomyces lydicus WYEC 108</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -61073,12 +61073,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RF-00014473-PAR</t>
+          <t>RF-00014600-PAR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Trichoderma atroviride 77B</t>
+          <t>Beauveria bassiana 203</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -61089,12 +61089,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RF-00014481-PAR</t>
+          <t>RF-00014603-PAR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Verticillium nonalfalfae Vert56</t>
+          <t>Beauveria bassiana strain 147</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -61105,12 +61105,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RF-00014492-PAR</t>
+          <t>RF-00014604-PAR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Papiliotrema terrestris PT22AV</t>
+          <t>Bacillus thuringiensis subsp. Tenebrionis strain NB-176</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -61121,12 +61121,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RF-00014494-PAR</t>
+          <t>RF-00014605-PAR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bacillus thuringiensis RTI545</t>
+          <t>Bacillus thuringiensis subspecies israelensis strain AM65-52</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -61137,12 +61137,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RF-00014489-PAR</t>
+          <t>RF-00014630-PAR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Streptomyces lydicus WYEC 108</t>
+          <t>Residues of petroleum oil</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -61153,12 +61153,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RF-00014572-PAR</t>
+          <t>RF-00015730-PAR</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pseudozyma flocculosa</t>
+          <t>Choline hydrogen phosphonate</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -61169,12 +61169,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RF-00014599-PAR</t>
+          <t>RF-00015743-PAR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Beauveria bassiana strain NPP111B005</t>
+          <t>Metarhizium pingshaense CF69</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -61185,12 +61185,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RF-00014600-PAR</t>
+          <t>RF-00015814-PAR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Beauveria bassiana 203</t>
+          <t>Metarhizium pingshaense CF78</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -61201,12 +61201,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RF-00014602-PAR</t>
+          <t>RF-00015858-PAR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Beauveria bassiana strain IMI389521</t>
+          <t>Lysate of Willaertia magna C2c Mak</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -61217,12 +61217,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RF-00014603-PAR</t>
+          <t>RF-00016132-PAR</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Beauveria bassiana strain 147</t>
+          <t>Bacillus amyloliquefaciens AT-332</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -61233,12 +61233,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RF-00014604-PAR</t>
+          <t>RF-00016148-PAR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bacillus thuringiensis subsp. Tenebrionis strain NB-176</t>
+          <t>Cryptophlebia peltastica Nucleopolyhedrovirus, strain South Africa</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -61249,12 +61249,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RF-00014605-PAR</t>
+          <t>RF-00016206-PAR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bacillus thuringiensis subspecies israelensis strain AM65-52</t>
+          <t>Bacillus nakamurai F727</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -61265,12 +61265,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RF-00014617-PAR</t>
+          <t>RF-00016223-PAR</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Artemisia vulgaris, ext.</t>
+          <t>Dimpropyridaz</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -61281,12 +61281,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RF-00014619-PAR</t>
+          <t>RF-00016226-PAR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Paraffin Oil</t>
+          <t>2-[8-chloro-4-(4-methoxyphenyl)-3-oxo-quinoxaline-2-carbonyl]cyclohexane-1,3-dione</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -61297,12 +61297,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RF-00014623-PAR</t>
+          <t>RF-00016227-PAR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Quassia amara, ext.</t>
+          <t>(1S)-2,2-bis(4-fluorophenyl)-1-methylethyl N-{[3-(acetyloxy)-4-methoxy-2-pyridyl]carbonyl}-L-alaninate</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -61313,12 +61313,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RF-00014627-PAR</t>
+          <t>RF-00016351-PAR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Savory, Satureja montana, ext.</t>
+          <t>(Z)-9-Tricosene</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -61329,44 +61329,48 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RF-00014630-PAR</t>
+          <t>RF-00016408-PAR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Residues of petroleum oil</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>Ethoxylated phosphates</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RF-00014652-PAR</t>
+          <t>RF-00016412-PAR</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Gelatins</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>Aromatic phosphonates</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RF-00014766-PAR</t>
+          <t>RF-00001716-PAR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Alpha-Lactalbumin</t>
+          <t>Dodecyldimethylamine oxide</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -61377,12 +61381,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RF-00015325-PAR</t>
+          <t>RF-00003411-PAR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cinnamomum cassia oil</t>
+          <t>gramine</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -61393,12 +61397,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RF-00015328-PAR</t>
+          <t>RF-00004133-PAR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sodium dodecyl sulphate (Sodium lauryl sulfate)</t>
+          <t>ajacine</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -61409,15 +61413,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RF-00015352-PAR</t>
+          <t>RF-00007493-PAR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Solvent-refined (severe) light and heavy paraffinic petroleum oil</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>Triclosan</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
       <c r="D64" t="n">
         <v>1</v>
       </c>
@@ -61425,12 +61431,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RF-00015700-PAR</t>
+          <t>RF-00008321-PAR</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Phosphonic acid and its salts expressed as phosphonic acid</t>
+          <t>1,2-Benzisothiazolin-3-one</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -61441,12 +61447,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RF-00015730-PAR</t>
+          <t>RF-00009984-PAR</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Choline hydrogen phosphonate</t>
+          <t>D-tagatose</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -61457,12 +61463,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RF-00015743-PAR</t>
+          <t>RF-00012373-PAR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Metarhizium pingshaense CF69</t>
+          <t>Papain</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -61473,12 +61479,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RF-00015814-PAR</t>
+          <t>RF-00013243-PAR</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Metarhizium pingshaense CF78</t>
+          <t>Essential oil from the flowers of Cananga odorata (Lam.) Hook.f. and Thomson (ylang ylang oil)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -61489,12 +61495,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RF-00015858-PAR</t>
+          <t>RF-00013374-PAR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lysate of Willaertia magna C2c Mak</t>
+          <t>4H-Pyran-4-one</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -61505,12 +61511,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RF-00015926-PAR</t>
+          <t>RF-00013378-PAR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Corn Oil</t>
+          <t>4-Methyl-2(5H)-furanone</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -61521,12 +61527,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RF-00016132-PAR</t>
+          <t>RF-00013779-PAR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bacillus amyloliquefaciens AT-332</t>
+          <t>Beauveria bassiana BOV1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -61537,12 +61543,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RF-00016148-PAR</t>
+          <t>RF-00014499-PAR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cryptophlebia peltastica Nucleopolyhedrovirus, strain South Africa</t>
+          <t>Silver iodide</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -61553,12 +61559,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RF-00016201-PAR</t>
+          <t>RF-00014473-PAR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Metarhizium brunneum BNL102</t>
+          <t>Trichoderma atroviride 77B</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -61569,12 +61575,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RF-00016204-PAR</t>
+          <t>RF-00014494-PAR</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Trichoderma afroharzianum Th2RI99</t>
+          <t>Bacillus thuringiensis RTI545</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -61585,12 +61591,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RF-00016206-PAR</t>
+          <t>RF-00014572-PAR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Bacillus nakamurai F727</t>
+          <t>Pseudozyma flocculosa</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -61601,12 +61607,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RF-00016211-PAR</t>
+          <t>RF-00014599-PAR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Trichoderma harzianum T78</t>
+          <t>Beauveria bassiana strain NPP111B005</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -61617,12 +61623,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RF-00016216-PAR</t>
+          <t>RF-00014602-PAR</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Metarhizium pingshaense CF62</t>
+          <t>Beauveria bassiana strain IMI389521</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -61633,12 +61639,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RF-00016223-PAR</t>
+          <t>RF-00014623-PAR</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Dimpropyridaz</t>
+          <t>Quassia amara, ext.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -61649,12 +61655,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RF-00016226-PAR</t>
+          <t>RF-00014766-PAR</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2-[8-chloro-4-(4-methoxyphenyl)-3-oxo-quinoxaline-2-carbonyl]cyclohexane-1,3-dione</t>
+          <t>Alpha-Lactalbumin</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -61665,12 +61671,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RF-00016227-PAR</t>
+          <t>RF-00015325-PAR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>(1S)-2,2-bis(4-fluorophenyl)-1-methylethyl N-{[3-(acetyloxy)-4-methoxy-2-pyridyl]carbonyl}-L-alaninate</t>
+          <t>Cinnamomum cassia oil</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -61681,12 +61687,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RF-00016347-PAR</t>
+          <t>RF-00015700-PAR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Distillates (petroleum), solvent-dewaxed heavy paraffinic</t>
+          <t>Phosphonic acid and its salts expressed as phosphonic acid</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -61697,12 +61703,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RF-00016351-PAR</t>
+          <t>RF-00015926-PAR</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>(Z)-9-Tricosene</t>
+          <t>Corn Oil</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -61713,66 +61719,60 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RF-00016407-PAR</t>
+          <t>RF-00016211-PAR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Alkylated phosphates</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
+          <t>Trichoderma harzianum T78</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RF-00016408-PAR</t>
+          <t>RF-00016216-PAR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ethoxylated phosphates</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
+          <t>Metarhizium pingshaense CF62</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RF-00016409-PAR</t>
+          <t>RF-00016347-PAR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Halogenated (chlorinated or brominated) phosphates</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
+          <t>Distillates (petroleum), solvent-dewaxed heavy paraffinic</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RF-00016410-PAR</t>
+          <t>RF-00016409-PAR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Aromatic phosphates</t>
+          <t>Halogenated (chlorinated or brominated) phosphates</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -61785,12 +61785,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>RF-00016411-PAR</t>
+          <t>RF-00016410-PAR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Alkylated phosphonates</t>
+          <t>Aromatic phosphates</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -61803,12 +61803,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>RF-00016412-PAR</t>
+          <t>RF-00016411-PAR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Aromatic phosphonates</t>
+          <t>Alkylated phosphonates</t>
         </is>
       </c>
       <c r="C88" t="n">
